--- a/debug/SUI_debug.xlsx
+++ b/debug/SUI_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE981"/>
+  <dimension ref="A1:AE994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -99835,13 +99835,13 @@
         <v>2.5012</v>
       </c>
       <c r="C981" t="n">
-        <v>2.6486</v>
+        <v>2.6594</v>
       </c>
       <c r="D981" t="n">
         <v>2.4418</v>
       </c>
       <c r="E981" t="n">
-        <v>2.5845</v>
+        <v>2.5818</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -99924,6 +99924,1343 @@
       </c>
       <c r="AE981" t="n">
         <v>2.4418</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B982" t="n">
+        <v>2.5817</v>
+      </c>
+      <c r="C982" t="n">
+        <v>2.6796</v>
+      </c>
+      <c r="D982" t="n">
+        <v>2.521</v>
+      </c>
+      <c r="E982" t="n">
+        <v>2.5747</v>
+      </c>
+      <c r="F982" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G982" t="b">
+        <v>0</v>
+      </c>
+      <c r="H982" t="n">
+        <v/>
+      </c>
+      <c r="I982" t="n">
+        <v/>
+      </c>
+      <c r="J982" t="n">
+        <v/>
+      </c>
+      <c r="K982" t="n">
+        <v/>
+      </c>
+      <c r="L982" t="n">
+        <v/>
+      </c>
+      <c r="M982" t="n">
+        <v/>
+      </c>
+      <c r="N982" t="n">
+        <v/>
+      </c>
+      <c r="O982" t="n">
+        <v>4.2989</v>
+      </c>
+      <c r="P982" t="n">
+        <v>2.2804</v>
+      </c>
+      <c r="Q982" t="n">
+        <v/>
+      </c>
+      <c r="R982" t="n">
+        <v/>
+      </c>
+      <c r="S982" t="n">
+        <v>7</v>
+      </c>
+      <c r="T982" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="U982" t="n">
+        <v>2.235428</v>
+      </c>
+      <c r="V982" t="n">
+        <v>1.977494</v>
+      </c>
+      <c r="W982" t="n">
+        <v>1.762549</v>
+      </c>
+      <c r="X982" t="n">
+        <v>1.504615</v>
+      </c>
+      <c r="Y982" t="n">
+        <v>1.203692</v>
+      </c>
+      <c r="Z982" t="n">
+        <v>0.902769</v>
+      </c>
+      <c r="AA982" t="n">
+        <v>0.816791</v>
+      </c>
+      <c r="AB982" t="n">
+        <v>2.4559908</v>
+      </c>
+      <c r="AC982" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD982" t="n">
+        <v>0.902769</v>
+      </c>
+      <c r="AE982" t="n">
+        <v>2.521</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B983" t="n">
+        <v>2.5746</v>
+      </c>
+      <c r="C983" t="n">
+        <v>2.685</v>
+      </c>
+      <c r="D983" t="n">
+        <v>2.468</v>
+      </c>
+      <c r="E983" t="n">
+        <v>2.4889</v>
+      </c>
+      <c r="F983" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G983" t="b">
+        <v>0</v>
+      </c>
+      <c r="H983" t="n">
+        <v/>
+      </c>
+      <c r="I983" t="n">
+        <v/>
+      </c>
+      <c r="J983" t="n">
+        <v/>
+      </c>
+      <c r="K983" t="n">
+        <v/>
+      </c>
+      <c r="L983" t="n">
+        <v/>
+      </c>
+      <c r="M983" t="n">
+        <v/>
+      </c>
+      <c r="N983" t="n">
+        <v/>
+      </c>
+      <c r="O983" t="n">
+        <v>4.2989</v>
+      </c>
+      <c r="P983" t="n">
+        <v>2.2804</v>
+      </c>
+      <c r="Q983" t="n">
+        <v/>
+      </c>
+      <c r="R983" t="n">
+        <v/>
+      </c>
+      <c r="S983" t="n">
+        <v>7</v>
+      </c>
+      <c r="T983" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="U983" t="n">
+        <v>2.235428</v>
+      </c>
+      <c r="V983" t="n">
+        <v>1.977494</v>
+      </c>
+      <c r="W983" t="n">
+        <v>1.762549</v>
+      </c>
+      <c r="X983" t="n">
+        <v>1.504615</v>
+      </c>
+      <c r="Y983" t="n">
+        <v>1.203692</v>
+      </c>
+      <c r="Z983" t="n">
+        <v>0.902769</v>
+      </c>
+      <c r="AA983" t="n">
+        <v>0.816791</v>
+      </c>
+      <c r="AB983" t="n">
+        <v>2.4559908</v>
+      </c>
+      <c r="AC983" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD983" t="n">
+        <v>0.902769</v>
+      </c>
+      <c r="AE983" t="n">
+        <v>2.468</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B984" t="n">
+        <v>2.4888</v>
+      </c>
+      <c r="C984" t="n">
+        <v>2.5011</v>
+      </c>
+      <c r="D984" t="n">
+        <v>2.3383</v>
+      </c>
+      <c r="E984" t="n">
+        <v>2.3818</v>
+      </c>
+      <c r="F984" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G984" t="b">
+        <v>1</v>
+      </c>
+      <c r="H984" t="n">
+        <v>1</v>
+      </c>
+      <c r="I984" t="inlineStr">
+        <is>
+          <t>BUY B1</t>
+        </is>
+      </c>
+      <c r="J984" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="L984" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="M984" t="n">
+        <v>2.3383</v>
+      </c>
+      <c r="N984" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="O984" t="n">
+        <v>4.2989</v>
+      </c>
+      <c r="P984" t="n">
+        <v>2.2804</v>
+      </c>
+      <c r="Q984" t="n">
+        <v/>
+      </c>
+      <c r="R984" t="n">
+        <v/>
+      </c>
+      <c r="S984" t="n">
+        <v>7</v>
+      </c>
+      <c r="T984" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="U984" t="n">
+        <v>2.235428</v>
+      </c>
+      <c r="V984" t="n">
+        <v>1.977494</v>
+      </c>
+      <c r="W984" t="n">
+        <v>1.762549</v>
+      </c>
+      <c r="X984" t="n">
+        <v>1.504615</v>
+      </c>
+      <c r="Y984" t="n">
+        <v>1.203692</v>
+      </c>
+      <c r="Z984" t="n">
+        <v>0.902769</v>
+      </c>
+      <c r="AA984" t="n">
+        <v>0.816791</v>
+      </c>
+      <c r="AB984" t="n">
+        <v>2.4559908</v>
+      </c>
+      <c r="AC984" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="AD984" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="AE984" t="n">
+        <v>2.3383</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B985" t="n">
+        <v>2.4888</v>
+      </c>
+      <c r="C985" t="n">
+        <v>2.5011</v>
+      </c>
+      <c r="D985" t="n">
+        <v>2.3383</v>
+      </c>
+      <c r="E985" t="n">
+        <v>2.3818</v>
+      </c>
+      <c r="F985" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G985" t="b">
+        <v>0</v>
+      </c>
+      <c r="H985" t="n">
+        <v/>
+      </c>
+      <c r="I985" t="inlineStr">
+        <is>
+          <t>SELL S</t>
+        </is>
+      </c>
+      <c r="J985" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="K985" t="n">
+        <v/>
+      </c>
+      <c r="L985" t="n">
+        <v/>
+      </c>
+      <c r="M985" t="n">
+        <v>2.4559908</v>
+      </c>
+      <c r="N985" t="n">
+        <v>2.4559908</v>
+      </c>
+      <c r="O985" t="n">
+        <v>4.2989</v>
+      </c>
+      <c r="P985" t="n">
+        <v>2.2804</v>
+      </c>
+      <c r="Q985" t="n">
+        <v/>
+      </c>
+      <c r="R985" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="S985" t="n">
+        <v>7</v>
+      </c>
+      <c r="T985" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="U985" t="n">
+        <v>2.235428</v>
+      </c>
+      <c r="V985" t="n">
+        <v>1.977494</v>
+      </c>
+      <c r="W985" t="n">
+        <v>1.762549</v>
+      </c>
+      <c r="X985" t="n">
+        <v>1.504615</v>
+      </c>
+      <c r="Y985" t="n">
+        <v>1.203692</v>
+      </c>
+      <c r="Z985" t="n">
+        <v>0.902769</v>
+      </c>
+      <c r="AA985" t="n">
+        <v>0.816791</v>
+      </c>
+      <c r="AB985" t="n">
+        <v>2.4559908</v>
+      </c>
+      <c r="AC985" t="n">
+        <v/>
+      </c>
+      <c r="AD985" t="n">
+        <v/>
+      </c>
+      <c r="AE985" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B986" t="n">
+        <v>2.4888</v>
+      </c>
+      <c r="C986" t="n">
+        <v>2.5011</v>
+      </c>
+      <c r="D986" t="n">
+        <v>2.3383</v>
+      </c>
+      <c r="E986" t="n">
+        <v>2.3818</v>
+      </c>
+      <c r="F986" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G986" t="b">
+        <v>0</v>
+      </c>
+      <c r="H986" t="n">
+        <v/>
+      </c>
+      <c r="I986" t="n">
+        <v/>
+      </c>
+      <c r="J986" t="n">
+        <v/>
+      </c>
+      <c r="K986" t="n">
+        <v/>
+      </c>
+      <c r="L986" t="n">
+        <v/>
+      </c>
+      <c r="M986" t="n">
+        <v/>
+      </c>
+      <c r="N986" t="n">
+        <v/>
+      </c>
+      <c r="O986" t="n">
+        <v>4.2989</v>
+      </c>
+      <c r="P986" t="n">
+        <v>2.2804</v>
+      </c>
+      <c r="Q986" t="n">
+        <v>9.678127</v>
+      </c>
+      <c r="R986" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="S986" t="n">
+        <v>7</v>
+      </c>
+      <c r="T986" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="U986" t="n">
+        <v>2.235428</v>
+      </c>
+      <c r="V986" t="n">
+        <v>1.977494</v>
+      </c>
+      <c r="W986" t="n">
+        <v>1.762549</v>
+      </c>
+      <c r="X986" t="n">
+        <v>1.504615</v>
+      </c>
+      <c r="Y986" t="n">
+        <v>1.203692</v>
+      </c>
+      <c r="Z986" t="n">
+        <v>0.902769</v>
+      </c>
+      <c r="AA986" t="n">
+        <v>0.816791</v>
+      </c>
+      <c r="AB986" t="n">
+        <v>2.4559908</v>
+      </c>
+      <c r="AC986" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="AD986" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="AE986" t="n">
+        <v>2.3383</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B987" t="n">
+        <v>2.3819</v>
+      </c>
+      <c r="C987" t="n">
+        <v>2.5052</v>
+      </c>
+      <c r="D987" t="n">
+        <v>2.3719</v>
+      </c>
+      <c r="E987" t="n">
+        <v>2.4296</v>
+      </c>
+      <c r="F987" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G987" t="b">
+        <v>1</v>
+      </c>
+      <c r="H987" t="n">
+        <v>1</v>
+      </c>
+      <c r="I987" t="inlineStr">
+        <is>
+          <t>BUY B1</t>
+        </is>
+      </c>
+      <c r="J987" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="L987" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="M987" t="n">
+        <v>2.3719</v>
+      </c>
+      <c r="N987" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="O987" t="n">
+        <v>4.2989</v>
+      </c>
+      <c r="P987" t="n">
+        <v>2.2804</v>
+      </c>
+      <c r="Q987" t="n">
+        <v/>
+      </c>
+      <c r="R987" t="n">
+        <v/>
+      </c>
+      <c r="S987" t="n">
+        <v>7</v>
+      </c>
+      <c r="T987" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="U987" t="n">
+        <v>2.235428</v>
+      </c>
+      <c r="V987" t="n">
+        <v>1.977494</v>
+      </c>
+      <c r="W987" t="n">
+        <v>1.762549</v>
+      </c>
+      <c r="X987" t="n">
+        <v>1.504615</v>
+      </c>
+      <c r="Y987" t="n">
+        <v>1.203692</v>
+      </c>
+      <c r="Z987" t="n">
+        <v>0.902769</v>
+      </c>
+      <c r="AA987" t="n">
+        <v>0.816791</v>
+      </c>
+      <c r="AB987" t="n">
+        <v>2.4559908</v>
+      </c>
+      <c r="AC987" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="AD987" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="AE987" t="n">
+        <v>2.3719</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B988" t="n">
+        <v>2.3819</v>
+      </c>
+      <c r="C988" t="n">
+        <v>2.5052</v>
+      </c>
+      <c r="D988" t="n">
+        <v>2.3719</v>
+      </c>
+      <c r="E988" t="n">
+        <v>2.4296</v>
+      </c>
+      <c r="F988" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G988" t="b">
+        <v>0</v>
+      </c>
+      <c r="H988" t="n">
+        <v/>
+      </c>
+      <c r="I988" t="inlineStr">
+        <is>
+          <t>SELL S</t>
+        </is>
+      </c>
+      <c r="J988" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="K988" t="n">
+        <v/>
+      </c>
+      <c r="L988" t="n">
+        <v/>
+      </c>
+      <c r="M988" t="n">
+        <v>2.4559908</v>
+      </c>
+      <c r="N988" t="n">
+        <v>2.4559908</v>
+      </c>
+      <c r="O988" t="n">
+        <v>4.2989</v>
+      </c>
+      <c r="P988" t="n">
+        <v>2.2804</v>
+      </c>
+      <c r="Q988" t="n">
+        <v/>
+      </c>
+      <c r="R988" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="S988" t="n">
+        <v>7</v>
+      </c>
+      <c r="T988" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="U988" t="n">
+        <v>2.235428</v>
+      </c>
+      <c r="V988" t="n">
+        <v>1.977494</v>
+      </c>
+      <c r="W988" t="n">
+        <v>1.762549</v>
+      </c>
+      <c r="X988" t="n">
+        <v>1.504615</v>
+      </c>
+      <c r="Y988" t="n">
+        <v>1.203692</v>
+      </c>
+      <c r="Z988" t="n">
+        <v>0.902769</v>
+      </c>
+      <c r="AA988" t="n">
+        <v>0.816791</v>
+      </c>
+      <c r="AB988" t="n">
+        <v>2.4559908</v>
+      </c>
+      <c r="AC988" t="n">
+        <v/>
+      </c>
+      <c r="AD988" t="n">
+        <v/>
+      </c>
+      <c r="AE988" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B989" t="n">
+        <v>2.3819</v>
+      </c>
+      <c r="C989" t="n">
+        <v>2.5052</v>
+      </c>
+      <c r="D989" t="n">
+        <v>2.3719</v>
+      </c>
+      <c r="E989" t="n">
+        <v>2.4296</v>
+      </c>
+      <c r="F989" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G989" t="b">
+        <v>0</v>
+      </c>
+      <c r="H989" t="n">
+        <v/>
+      </c>
+      <c r="I989" t="n">
+        <v/>
+      </c>
+      <c r="J989" t="n">
+        <v/>
+      </c>
+      <c r="K989" t="n">
+        <v/>
+      </c>
+      <c r="L989" t="n">
+        <v/>
+      </c>
+      <c r="M989" t="n">
+        <v/>
+      </c>
+      <c r="N989" t="n">
+        <v/>
+      </c>
+      <c r="O989" t="n">
+        <v>4.2989</v>
+      </c>
+      <c r="P989" t="n">
+        <v>2.2804</v>
+      </c>
+      <c r="Q989" t="n">
+        <v>9.85792</v>
+      </c>
+      <c r="R989" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="S989" t="n">
+        <v>7</v>
+      </c>
+      <c r="T989" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="U989" t="n">
+        <v>2.235428</v>
+      </c>
+      <c r="V989" t="n">
+        <v>1.977494</v>
+      </c>
+      <c r="W989" t="n">
+        <v>1.762549</v>
+      </c>
+      <c r="X989" t="n">
+        <v>1.504615</v>
+      </c>
+      <c r="Y989" t="n">
+        <v>1.203692</v>
+      </c>
+      <c r="Z989" t="n">
+        <v>0.902769</v>
+      </c>
+      <c r="AA989" t="n">
+        <v>0.816791</v>
+      </c>
+      <c r="AB989" t="n">
+        <v>2.4559908</v>
+      </c>
+      <c r="AC989" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="AD989" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="AE989" t="n">
+        <v>2.3719</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B990" t="n">
+        <v>2.4296</v>
+      </c>
+      <c r="C990" t="n">
+        <v>2.535</v>
+      </c>
+      <c r="D990" t="n">
+        <v>2.4006</v>
+      </c>
+      <c r="E990" t="n">
+        <v>2.5236</v>
+      </c>
+      <c r="F990" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G990" t="b">
+        <v>1</v>
+      </c>
+      <c r="H990" t="n">
+        <v>1</v>
+      </c>
+      <c r="I990" t="inlineStr">
+        <is>
+          <t>BUY B1</t>
+        </is>
+      </c>
+      <c r="J990" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="L990" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="M990" t="n">
+        <v>2.4006</v>
+      </c>
+      <c r="N990" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="O990" t="n">
+        <v>4.2989</v>
+      </c>
+      <c r="P990" t="n">
+        <v>2.2804</v>
+      </c>
+      <c r="Q990" t="n">
+        <v/>
+      </c>
+      <c r="R990" t="n">
+        <v/>
+      </c>
+      <c r="S990" t="n">
+        <v>7</v>
+      </c>
+      <c r="T990" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="U990" t="n">
+        <v>2.235428</v>
+      </c>
+      <c r="V990" t="n">
+        <v>1.977494</v>
+      </c>
+      <c r="W990" t="n">
+        <v>1.762549</v>
+      </c>
+      <c r="X990" t="n">
+        <v>1.504615</v>
+      </c>
+      <c r="Y990" t="n">
+        <v>1.203692</v>
+      </c>
+      <c r="Z990" t="n">
+        <v>0.902769</v>
+      </c>
+      <c r="AA990" t="n">
+        <v>0.816791</v>
+      </c>
+      <c r="AB990" t="n">
+        <v>2.4559908</v>
+      </c>
+      <c r="AC990" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="AD990" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="AE990" t="n">
+        <v>2.4006</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B991" t="n">
+        <v>2.4296</v>
+      </c>
+      <c r="C991" t="n">
+        <v>2.535</v>
+      </c>
+      <c r="D991" t="n">
+        <v>2.4006</v>
+      </c>
+      <c r="E991" t="n">
+        <v>2.5236</v>
+      </c>
+      <c r="F991" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G991" t="b">
+        <v>0</v>
+      </c>
+      <c r="H991" t="n">
+        <v/>
+      </c>
+      <c r="I991" t="inlineStr">
+        <is>
+          <t>SELL S</t>
+        </is>
+      </c>
+      <c r="J991" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="K991" t="n">
+        <v/>
+      </c>
+      <c r="L991" t="n">
+        <v/>
+      </c>
+      <c r="M991" t="n">
+        <v>2.4559908</v>
+      </c>
+      <c r="N991" t="n">
+        <v>2.4559908</v>
+      </c>
+      <c r="O991" t="n">
+        <v>4.2989</v>
+      </c>
+      <c r="P991" t="n">
+        <v>2.2804</v>
+      </c>
+      <c r="Q991" t="n">
+        <v/>
+      </c>
+      <c r="R991" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="S991" t="n">
+        <v>7</v>
+      </c>
+      <c r="T991" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="U991" t="n">
+        <v>2.235428</v>
+      </c>
+      <c r="V991" t="n">
+        <v>1.977494</v>
+      </c>
+      <c r="W991" t="n">
+        <v>1.762549</v>
+      </c>
+      <c r="X991" t="n">
+        <v>1.504615</v>
+      </c>
+      <c r="Y991" t="n">
+        <v>1.203692</v>
+      </c>
+      <c r="Z991" t="n">
+        <v>0.902769</v>
+      </c>
+      <c r="AA991" t="n">
+        <v>0.816791</v>
+      </c>
+      <c r="AB991" t="n">
+        <v>2.4559908</v>
+      </c>
+      <c r="AC991" t="n">
+        <v/>
+      </c>
+      <c r="AD991" t="n">
+        <v/>
+      </c>
+      <c r="AE991" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B992" t="n">
+        <v>2.4296</v>
+      </c>
+      <c r="C992" t="n">
+        <v>2.535</v>
+      </c>
+      <c r="D992" t="n">
+        <v>2.4006</v>
+      </c>
+      <c r="E992" t="n">
+        <v>2.5236</v>
+      </c>
+      <c r="F992" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G992" t="b">
+        <v>0</v>
+      </c>
+      <c r="H992" t="n">
+        <v/>
+      </c>
+      <c r="I992" t="n">
+        <v/>
+      </c>
+      <c r="J992" t="n">
+        <v/>
+      </c>
+      <c r="K992" t="n">
+        <v/>
+      </c>
+      <c r="L992" t="n">
+        <v/>
+      </c>
+      <c r="M992" t="n">
+        <v/>
+      </c>
+      <c r="N992" t="n">
+        <v/>
+      </c>
+      <c r="O992" t="n">
+        <v>4.2989</v>
+      </c>
+      <c r="P992" t="n">
+        <v>2.2804</v>
+      </c>
+      <c r="Q992" t="n">
+        <v>11.164708</v>
+      </c>
+      <c r="R992" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="S992" t="n">
+        <v>7</v>
+      </c>
+      <c r="T992" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="U992" t="n">
+        <v>2.235428</v>
+      </c>
+      <c r="V992" t="n">
+        <v>1.977494</v>
+      </c>
+      <c r="W992" t="n">
+        <v>1.762549</v>
+      </c>
+      <c r="X992" t="n">
+        <v>1.504615</v>
+      </c>
+      <c r="Y992" t="n">
+        <v>1.203692</v>
+      </c>
+      <c r="Z992" t="n">
+        <v>0.902769</v>
+      </c>
+      <c r="AA992" t="n">
+        <v>0.816791</v>
+      </c>
+      <c r="AB992" t="n">
+        <v>2.4559908</v>
+      </c>
+      <c r="AC992" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="AD992" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="AE992" t="n">
+        <v>2.4006</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B993" t="n">
+        <v>2.5235</v>
+      </c>
+      <c r="C993" t="n">
+        <v>2.5659</v>
+      </c>
+      <c r="D993" t="n">
+        <v>2.4662</v>
+      </c>
+      <c r="E993" t="n">
+        <v>2.5336</v>
+      </c>
+      <c r="F993" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G993" t="b">
+        <v>0</v>
+      </c>
+      <c r="H993" t="n">
+        <v/>
+      </c>
+      <c r="I993" t="n">
+        <v/>
+      </c>
+      <c r="J993" t="n">
+        <v/>
+      </c>
+      <c r="K993" t="n">
+        <v/>
+      </c>
+      <c r="L993" t="n">
+        <v/>
+      </c>
+      <c r="M993" t="n">
+        <v/>
+      </c>
+      <c r="N993" t="n">
+        <v/>
+      </c>
+      <c r="O993" t="n">
+        <v>4.2989</v>
+      </c>
+      <c r="P993" t="n">
+        <v>2.2804</v>
+      </c>
+      <c r="Q993" t="n">
+        <v/>
+      </c>
+      <c r="R993" t="n">
+        <v/>
+      </c>
+      <c r="S993" t="n">
+        <v>7</v>
+      </c>
+      <c r="T993" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="U993" t="n">
+        <v>2.235428</v>
+      </c>
+      <c r="V993" t="n">
+        <v>1.977494</v>
+      </c>
+      <c r="W993" t="n">
+        <v>1.762549</v>
+      </c>
+      <c r="X993" t="n">
+        <v>1.504615</v>
+      </c>
+      <c r="Y993" t="n">
+        <v>1.203692</v>
+      </c>
+      <c r="Z993" t="n">
+        <v>0.902769</v>
+      </c>
+      <c r="AA993" t="n">
+        <v>0.816791</v>
+      </c>
+      <c r="AB993" t="n">
+        <v>2.4559908</v>
+      </c>
+      <c r="AC993" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD993" t="n">
+        <v>0.902769</v>
+      </c>
+      <c r="AE993" t="n">
+        <v>2.4662</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B994" t="n">
+        <v>2.5336</v>
+      </c>
+      <c r="C994" t="n">
+        <v>2.6611</v>
+      </c>
+      <c r="D994" t="n">
+        <v>2.4969</v>
+      </c>
+      <c r="E994" t="n">
+        <v>2.6299</v>
+      </c>
+      <c r="F994" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G994" t="b">
+        <v>0</v>
+      </c>
+      <c r="H994" t="n">
+        <v/>
+      </c>
+      <c r="I994" t="n">
+        <v/>
+      </c>
+      <c r="J994" t="n">
+        <v/>
+      </c>
+      <c r="K994" t="n">
+        <v/>
+      </c>
+      <c r="L994" t="n">
+        <v/>
+      </c>
+      <c r="M994" t="n">
+        <v/>
+      </c>
+      <c r="N994" t="n">
+        <v/>
+      </c>
+      <c r="O994" t="n">
+        <v>4.2989</v>
+      </c>
+      <c r="P994" t="n">
+        <v>2.2804</v>
+      </c>
+      <c r="Q994" t="n">
+        <v/>
+      </c>
+      <c r="R994" t="n">
+        <v/>
+      </c>
+      <c r="S994" t="n">
+        <v>7</v>
+      </c>
+      <c r="T994" t="n">
+        <v>2.407384</v>
+      </c>
+      <c r="U994" t="n">
+        <v>2.235428</v>
+      </c>
+      <c r="V994" t="n">
+        <v>1.977494</v>
+      </c>
+      <c r="W994" t="n">
+        <v>1.762549</v>
+      </c>
+      <c r="X994" t="n">
+        <v>1.504615</v>
+      </c>
+      <c r="Y994" t="n">
+        <v>1.203692</v>
+      </c>
+      <c r="Z994" t="n">
+        <v>0.902769</v>
+      </c>
+      <c r="AA994" t="n">
+        <v>0.816791</v>
+      </c>
+      <c r="AB994" t="n">
+        <v>2.4559908</v>
+      </c>
+      <c r="AC994" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD994" t="n">
+        <v>0.902769</v>
+      </c>
+      <c r="AE994" t="n">
+        <v>2.4969</v>
       </c>
     </row>
   </sheetData>
